--- a/finetuning/it_datasets/it_dataset/it_siliana_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_siliana_dataset.xlsx
@@ -650,10 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great place to eat, check out SAM'S FOOD located at 39MC+RP5. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/SAM%27S+FOOD/data=!4m7!3m6!1s0x12fc65894c0c4bf1:0x7da64569989c9b91!8m2!3d36.0845055!4d9.3718564!16s%2Fg%2F11kmcrjrrb!19sChIJ8UsMTIll_BIRkZucmGlFpn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 943 256.</t>
+          <t>SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.</t>
         </is>
       </c>
     </row>
@@ -752,9 +749,8 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Brooklyn Cooffe located at 39P8+35J Brooklyn Cooffe, Siliana. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, call them at 98 205 001.</t>
+          <t>**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.</t>
         </is>
       </c>
     </row>
@@ -849,7 +845,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe, check out Daily Dose located at 39M3+PJ4 Daily Dose, Siliana. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -944,9 +940,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great Cafe, check out Cafe Panorama located at 39P8+22C Cafe Panorama, P4, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1039,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a top-rated cafe, check out Cafe classico located at 39P9+RHJ Cafe classico, Rue Habib Thameur, Siliana. This popular destination is perfect for Cafe lovers and has a rating of 5.0. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+classico/data=!4m7!3m6!1s0x12fc655650871591:0x93756f2a10343642!8m2!3d36.0870798!4d9.3688911!16s%2Fg%2F11hj9z595b!19sChIJkRWHUFZl_BIRQjY0ECpvdZM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 602 073.</t>
+          <t>Cafe classico is a cafe located in Rue Habib Thameur, Siliana. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and sandwiches. The cafe is also known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1136,9 +1130,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Ridha lablebi located at 39P9+GR6 Ridha lablebi, Av. de l'Independance, Siliana. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.086804482197, 9.36899994745. For more details, visit their website</t>
+          <t>Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1233,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out TAHA Coffee located at cite la republique siliana, 6100. This top-rated destination is perfect for Cafe specialise dans les boissons expresso lovers and offers a range of Cafe specialise dans les boissons expresso to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, . To get there, use these GPS coordinates: 35.9624358, 9.1498584. For more details, visit their website at or call them at 40 494 316.</t>
+          <t>TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.</t>
         </is>
       </c>
     </row>
@@ -1340,9 +1332,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Cafe Ferdawes located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. You can get there using the GPS coordinates (36.0845203, 9.3708318). For more details, visit their website or call them at 96 911 560.</t>
+          <t>Café Ferdawes, located at 39H8+VHP, Unnamed Road, Siliana, Tunisia, offers a cozy and welcoming ambiance for coffee lovers. With its convenient location and warm atmosphere, the cafe serves as a perfect spot to unwind and enjoy a cup of freshly brewed coffee.</t>
         </is>
       </c>
     </row>
@@ -1445,10 +1435,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a top-rated Cafe, Palm Coffe located at 39Q7+FRM Palm Coffe, Siliana is the place for you. 
-This must-visit spot offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Palm+Coffe/data=!4m7!3m6!1s0x12fc7b0d4148ff77:0xae36f00ae1d3457d!8m2!3d36.0887208!4d9.3645335!16s%2Fg%2F11rr7m0bfd!19sChIJd_9IQQ17_BIRfUXT4QrwNq4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 633 733.</t>
+          <t>Palm Coffe is a Cafe located in siliana, Tunisia at the following coordinates: (36.0845203, 9.3708318) and phone number 28 633 733. This place opens 24h/24 and is highly rated with a rating of 5.0 out of 5 stars, based on 1 reviews.</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1530,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe experience, check out Cafe 92 located at 39QC+7QH, Siliana. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at  or call them at .</t>
+          <t>Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1625,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Siliana, discover the renowned spiritual center, Siliana. With 7 rave reviews and a rating of 3.9, this hidden gem is perfect for those seeking spiritual guidance and enlightenment. Its precise location can be found at 39Q8+C3H Siliana. For further information, visit their website or reach out to them at their listed coordinates: (36.0845203, 9.3708318).</t>
+          <t>Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1720,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in siliana, Barrage Siliana is a top-rated destination for Reservoir lovers. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Barrage+Siliana/data=!4m7!3m6!1s0x12fc7b585ab2272b:0xd71653b8a4f7c9b7!8m2!3d36.1430179!4d9.358984!16s%2Fg%2F1q5bly3mm!19sChIJKyeyWlh7_BIRt8n3pLhTFtc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1815,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a picturesque natural attraction, head to oued Siliana. This top-rated destination is perfect for Cours d'eau lovers, with a rating of 4.8, making it a must-visit spot. To get there, use these GPS coordinates: 36.55237, 9.41965. For more details, visit the website at https://www.google.com/maps/place/oued+Siliana/data=!4m7!3m6!1s0x12fc8ef8701ac003:0x92d88f052f792d67!8m2!3d36.3529465!4d9.4038463!16s%2Fg%2F1216lb66!19sChIJA8AacPiO_BIRZy15LwWP2JI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1910,8 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Barrage Siliana located at 5942+75G Barrage Siliana, Siliana. This top-rated destination is perfect for Barrage lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.</t>
         </is>
       </c>
     </row>
@@ -2018,9 +2006,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a place of worship, check out Mosquee Fatima Zahra located at 39M4+RR2 Mosquee Fatima Zahra, P4. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3290332, 6.6640395. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Fatima+Zahra/data=!4m7!3m6!1s0x12fc7ab08f8e4b9d:0x717d2f7b56718091!8m2!3d36.0845138!4d9.3570049!16s%2Fg%2F11byp5wbr6!19sChIJnUuOj7B6_BIRkYBxVnsvfXE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).</t>
         </is>
       </c>
     </row>
@@ -2115,10 +2101,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Barrage Siliana located at Barrage Siliana. 
-This top-rated destination is perfect for Reservoir lovers. 
-With a rating of 3.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
     </row>
@@ -2209,9 +2192,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Oued Siliana located at Oued Siliana. 
-This top-rated destination is perfect for Cours d'eau lovers and offers a range of Cours d'eau to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.55237, 9.41965.</t>
+          <t>The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.</t>
         </is>
       </c>
     </row>
@@ -2314,9 +2295,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Pavarotti pizza located at Rue Ahmed Ibn Abi Dhiaf. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.086767464468, 9.372935245166. For more details, visit their website at or call them at 22 365 444.</t>
+          <t>Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2394,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in siliana, SAM'S FOOD is a top-rated restaurant located at 39MC+RP5. It's perfect for Restaurant lovers and offers a 4.6 rating. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit the link at https://www.google.com/maps/place/SAM%27S+FOOD/data=!4m7!3m6!1s0x12fc65894c0c4bf1:0x7da64569989c9b91!8m2!3d36.0845055!4d9.3718564!16s%2Fg%2F11kmcrjrrb!19sChIJ8UsMTIll_BIRkZucmGlFpn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 943 256.</t>
+          <t>SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2497,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out 3AM TAWFIK located at 39P9+HFG 3AM TAWFIK, Siliana. This top-rated destination is perfect for Restaurant lovers and offers a range of categories including Restaurant, Creperie, Cremerie, Consultant en agroalimentaire, Pizzeria and Sandwicherie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.facebook.com/libanais.chaim%3Fmibextid%3DZbWKwL.</t>
+          <t>3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -2621,11 +2600,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a delicious meal, check out Restaurant lella Beyya, located at 39PC+V22 Restaurant lella Beyya, Siliana. 
-This top-rated restaurant is perfect for foodies. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on [] 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. 
-For more details, visit their website at nan or call them at 96 244 070.</t>
+          <t>Nestled in the heart of Siliana, Restaurant lella Beyya is a culinary haven that tantalizes taste buds with its exquisite cuisine. Located at coordinates (36.0845203, 9.3708318), this restaurant offers a cozy ambiance and exceptional service.</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2695,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out mT`m lnkhl@ located at 39P9+MQ6 mT`m lnkhl@, Siliana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>mT`m lnkhl@ is a restaurant located in Siliana, Tunisia. It is open daily from 08:00 am to 10:00 am, except on Sundays. The restaurant has received 4.0 ratings from its customers. It offers a variety of dishes and has a friendly atmosphere. The coordinates of the restaurant are (36.0845203, 9.3708318).</t>
         </is>
       </c>
     </row>
@@ -2819,9 +2794,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a relaxing spot, check out Brooklyn Cooffe located at 39P8+35J Brooklyn Cooffe, Siliana. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the and Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, call them at 98 205 001.</t>
+          <t>Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.</t>
         </is>
       </c>
     </row>
@@ -2924,9 +2897,8 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out bb lHwm@. wjdy located at 39QC+65R bb lHwm@. wjdy, Unnamed Road, Siliana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-22:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/%D8%A8%D8%A7%D8%A8+%D8%A7%D9%84%D8%AD%D9%88%D9%85%D8%A9.+%D9%88%D8%AC%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fc655adb5dd921:0xe368c7edc8238bc9!8m2!3d36.0881195!4d9.3704038!16s%2Fg%2F11gw13cwt0!19sChIJIdld21pl_BIRyYsjyO3HaOM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 593 513.</t>
+          <t>**Restaurant bb lHwm@. wjdy**
+Nestled at the coordinates (36.0845203, 9.3708318) in the heart of Siliana, Restaurant bb lHwm@. wjdy offers a delectable culinary experience. With its 4.0-star rating, this establishment is frequented by food enthusiasts seeking a satisfying meal. The restaurant operates from 8:30 AM to 10:00 PM, offering a diverse menu that caters to various tastes and preferences.</t>
         </is>
       </c>
     </row>
@@ -3021,7 +2993,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in siliana, Daily Dose is a top-rated Cafe located at 39M3+PJ4 Daily Dose, Siliana, offering a range of Cafe options. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>Daily Dose is a 5-star rated cafe located in Siliana, Tunisia at (36.0845203, 9.3708318)</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3088,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Cafe Panorama located at 39P8+22C Cafe Panorama, P4, Siliana. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Panorama is a cafe located in Siliana, Tunisia. It offers a variety of food and drinks, and is open from 5:30am to midnight. The cafe is located at 36.0845203, 9.3708318.</t>
         </is>
       </c>
     </row>
@@ -3207,9 +3179,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Ridha lablebi located at 39P9+GR6 Av. de l'Independance, Siliana. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.086804482197, 9.36899994745. For more details, visit their website at https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3278,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for a lovely café experience, head over to Café Classico at 39P9+RHJ Rue Habib Thameur. With a perfect 5.0 rating, it's a top-rated destination for café enthusiasts. Their phone number is 28 602 073.</t>
+          <t>Cafe Classico is a cafe located in Siliana, Tunisia at the coordinates (36.0845203, 9.3708318). It has a rating of 5.0 and is categorized as a cafe. With a phone number of 28 602 073, it offers a variety of cafe offerings.</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3373,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for a great dining experience, check out EL FIRMA GRILL EXPRESS located at 6100 Rue 18 Janvier. This top-rated restaurant offers a range of delicious dishes to choose from. With a rating of 5.0 out of 5, it's a must-visit spot. Visit their website at https://www.google.com/maps/place/EL+FIRMA+GRILL+EXPRESS/data=!4m7!3m6!1s0x12fc6589c1a68d29:0xcc60195a9f4e79af!8m2!3d36.0861873!4d9.3707989!16s%2Fg%2F11vdrkqlsx!19sChIJKY2mwYll_BIRr3lOn1oZYMw?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>EL FIRMA GRILL EXPRESS is a restaurant located at EL FIRMA GRILL EXPRESS, 6100 Rue 18 Janvier in the city of Siliana. Its coordinates are (35.9624358, 9.1498584).</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3476,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for somewhere to eat, head to Fast Food The Fifty Five 55, located at Fast food The Fifty Five 55, Siliana 6100. This top-rated restaurant is perfect for Restaurant enthusiasts and serves a range of Restaurant options. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 35.9624358, 9.1498584. For more details, call them at 29 190 787.</t>
+          <t>Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).</t>
         </is>
       </c>
     </row>
@@ -3609,8 +3579,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>In **siliana**, a must-visit spot for **Cafe specialise dans les boissons expresso** enthusiasts is **TAHA Coffee**, located at **cite la republique siliana, 6100**. 
-This top-rated destination boasts a 5.0 rating and is open 24 hours a day. For more info, visit their website or call them at **40 494 316**.</t>
+          <t>TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).</t>
         </is>
       </c>
     </row>
@@ -3713,9 +3682,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Palm Coffe located at 39Q7+FRM Palm Coffe, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Palm+Coffe/data=!4m7!3m6!1s0x12fc7b0d4148ff77:0xae36f00ae1d3457d!8m2!3d36.0887208!4d9.3645335!16s%2Fg%2F11rr7m0bfd!19sChIJd_9IQQ17_BIRfUXT4QrwNq4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 633 733.</t>
+          <t>Located in the heart of Siliana, Palm Coffe is a cozy cafe offering a warm and welcoming atmosphere. Our menu features a tantalizing selection of coffee, tea, pastries, and snacks to cater to every taste. Situated at the coordinates (36.0845203, 9.3708318), Palm Coffe is the perfect spot to relax, refuel, and connect with friends and family.</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3781,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe, check out Cafe Ferdawes located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. You can contact them at 96 911 560 for more details.</t>
+          <t>Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.</t>
         </is>
       </c>
     </row>
